--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H2">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.49917785717623</v>
+        <v>7.940402333333334</v>
       </c>
       <c r="N2">
-        <v>7.49917785717623</v>
+        <v>23.821207</v>
       </c>
       <c r="O2">
-        <v>0.1845651337866789</v>
+        <v>0.1931648990487216</v>
       </c>
       <c r="P2">
-        <v>0.1845651337866789</v>
+        <v>0.1931648990487216</v>
       </c>
       <c r="Q2">
-        <v>31.3648242215044</v>
+        <v>33.97016607233056</v>
       </c>
       <c r="R2">
-        <v>31.3648242215044</v>
+        <v>305.731494650975</v>
       </c>
       <c r="S2">
-        <v>0.1788544824564227</v>
+        <v>0.1866595899833297</v>
       </c>
       <c r="T2">
-        <v>0.1788544824564227</v>
+        <v>0.1866595899833297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H3">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.9442107038137</v>
+        <v>26.95384733333333</v>
       </c>
       <c r="N3">
-        <v>26.9442107038137</v>
+        <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6631342725878993</v>
+        <v>0.6557019380820612</v>
       </c>
       <c r="P3">
-        <v>0.6631342725878993</v>
+        <v>0.6557019380820612</v>
       </c>
       <c r="Q3">
-        <v>112.6924109025614</v>
+        <v>115.3123773537055</v>
       </c>
       <c r="R3">
-        <v>112.6924109025614</v>
+        <v>1037.81139618335</v>
       </c>
       <c r="S3">
-        <v>0.6426161577186549</v>
+        <v>0.6336195422482073</v>
       </c>
       <c r="T3">
-        <v>0.6426161577186549</v>
+        <v>0.6336195422482073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H4">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.18821776311574</v>
+        <v>6.212609666666666</v>
       </c>
       <c r="N4">
-        <v>6.18821776311574</v>
+        <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1523005936254219</v>
+        <v>0.1511331628692172</v>
       </c>
       <c r="P4">
-        <v>0.1523005936254219</v>
+        <v>0.1511331628692172</v>
       </c>
       <c r="Q4">
-        <v>25.88181879148025</v>
+        <v>26.57842427370278</v>
       </c>
       <c r="R4">
-        <v>25.88181879148025</v>
+        <v>239.205818463325</v>
       </c>
       <c r="S4">
-        <v>0.1475882431952965</v>
+        <v>0.1460433772024823</v>
       </c>
       <c r="T4">
-        <v>0.1475882431952965</v>
+        <v>0.1460433772024823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H5">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.49917785717623</v>
+        <v>7.940402333333334</v>
       </c>
       <c r="N5">
-        <v>7.49917785717623</v>
+        <v>23.821207</v>
       </c>
       <c r="O5">
-        <v>0.1845651337866789</v>
+        <v>0.1931648990487216</v>
       </c>
       <c r="P5">
-        <v>0.1845651337866789</v>
+        <v>0.1931648990487216</v>
       </c>
       <c r="Q5">
-        <v>1.001448622946448</v>
+        <v>1.183900753896111</v>
       </c>
       <c r="R5">
-        <v>1.001448622946448</v>
+        <v>10.655106785065</v>
       </c>
       <c r="S5">
-        <v>0.005710651330256144</v>
+        <v>0.00650530906539198</v>
       </c>
       <c r="T5">
-        <v>0.005710651330256144</v>
+        <v>0.006505309065391978</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H6">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.9442107038137</v>
+        <v>26.95384733333333</v>
       </c>
       <c r="N6">
-        <v>26.9442107038137</v>
+        <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6631342725878993</v>
+        <v>0.6557019380820612</v>
       </c>
       <c r="P6">
-        <v>0.6631342725878993</v>
+        <v>0.6557019380820612</v>
       </c>
       <c r="Q6">
-        <v>3.598160120964721</v>
+        <v>4.018773714321111</v>
       </c>
       <c r="R6">
-        <v>3.598160120964721</v>
+        <v>36.16896342889</v>
       </c>
       <c r="S6">
-        <v>0.02051811486924434</v>
+        <v>0.02208239583385402</v>
       </c>
       <c r="T6">
-        <v>0.02051811486924434</v>
+        <v>0.02208239583385402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H7">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.18821776311574</v>
+        <v>6.212609666666666</v>
       </c>
       <c r="N7">
-        <v>6.18821776311574</v>
+        <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1523005936254219</v>
+        <v>0.1511331628692172</v>
       </c>
       <c r="P7">
-        <v>0.1523005936254219</v>
+        <v>0.1511331628692172</v>
       </c>
       <c r="Q7">
-        <v>0.8263815414692031</v>
+        <v>0.9262897469505555</v>
       </c>
       <c r="R7">
-        <v>0.8263815414692031</v>
+        <v>8.336607722555</v>
       </c>
       <c r="S7">
-        <v>0.004712350430125443</v>
+        <v>0.005089785666734918</v>
       </c>
       <c r="T7">
-        <v>0.004712350430125443</v>
+        <v>0.005089785666734918</v>
       </c>
     </row>
   </sheetData>
